--- a/monster.xlsx
+++ b/monster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,748 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺心螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行影虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚石虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御虚螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百绣云虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡缘烈虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎罗无虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问道铁虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙雪虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊涛仙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落尘锡蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太乙黑虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿灵暗虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沧海引虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊云离虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩琦黑蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王橙蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羽乾蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神焰尘虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽泉刺虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无银暗虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开膛笑蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极意裂虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>却邪冰虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五岳骨虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云珠虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣金飞蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵雨飞蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙飞蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧涛桐虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托月肉虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法性石蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血阳蟒蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离火灵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霄绿蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒灵焱虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼毒灵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄霜刚蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火凤石虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域霆绯虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抱卵阴虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜夜雷虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月洛石蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒梅绿虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕义蓝蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣晨铁蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镏金白蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天尊仙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃武虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雷太蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重星蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天狗璃虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红月阳虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲霄隐虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩影尘蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震天靛蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古巨凤蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花赤斗虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦织雪虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵角霞蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百变赤蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙砾貂虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼毒艮虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒泉韵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火羽螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擎天飞蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午铜虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武曲铜虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱罗螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛊风螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎极螳螂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青君幻虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍灵古蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭魔空蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎星焰虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金凤烈蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天泽玉蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙黄波虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇木油虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿鼻土虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭魂蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天傲蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛青追虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荧蓝光蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁王蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真极蓝蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七圣巨蚊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星宿巨蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼阳铁蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百黄裂虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏羲绿蝇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天残御虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缘觉沙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成光土虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达摩银虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗魔蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙凤重波蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟠龙蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千青裂虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤羽毒蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软皮钢虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿空焱蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈光丝蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨日铁蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊魂橙蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄龟瑶蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断空冽蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森罗重蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿蒙蚁后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青霜玄蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神鸢肉蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地煞血蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临枫蕊蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫玉钢蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳阿玄蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旬空梵蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠丝焰蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芙蓉宁蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成光银蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无恨黄蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月读酝蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天武晶蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢血蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗幻蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头血罗蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五首玉蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双头霜华蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双首羿神蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤冠幻蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破地五行蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦云天蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍狼缎虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空光虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天封鳞虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧魂摄珠蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勐虎蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行音蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断空钢蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌霄冰虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七杀蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹光蚊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌霄蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元阳陨蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍云梵虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱鹦虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤纹绿虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩龙艳虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋革虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金列蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎感蜈蚣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行巽蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫血蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颂道蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛幻千蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无相血蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇雷缨蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金翎玄蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战龙魂蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤眼绿嚣蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天哲红霞蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼毒千蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙陨蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎尸冰绝蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癸水焱蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双橙琉蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游龙石蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风炎圣蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里追风蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上裂砂蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光雷蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搅海虹蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎云玄蟾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>幻檀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="3"/>
+      </rPr>
+      <t>蛙</t>
+    </r>
+  </si>
+  <si>
+    <t>托天鬼蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潇湘灵蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧山怨蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥毒蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼面骨蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄霜白蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵幻蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶玉虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +791,25 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +834,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,8 +1175,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -417,9 +1187,8 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>B2+1</f>
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -430,9 +1199,8 @@
         <f t="shared" ref="A4:B67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -443,9 +1211,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -456,9 +1223,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -469,9 +1235,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -482,9 +1247,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -495,9 +1259,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -508,9 +1271,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -521,9 +1283,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -534,9 +1295,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -547,8 +1307,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
@@ -560,8 +1319,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
@@ -573,8 +1331,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
@@ -586,8 +1343,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
@@ -599,8 +1355,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
@@ -612,8 +1367,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18">
@@ -625,8 +1379,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19">
@@ -638,9 +1391,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -651,9 +1403,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -664,9 +1415,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>21</v>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -677,9 +1427,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -690,9 +1439,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -703,9 +1451,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -716,9 +1463,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="B26" t="s">
+        <v>24</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -729,9 +1475,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>25</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -742,9 +1487,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>27</v>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -755,9 +1499,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>28</v>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -768,9 +1511,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B30" t="s">
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -781,9 +1523,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -794,22 +1535,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>32</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -820,8 +1559,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34">
@@ -833,9 +1571,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="B35" t="s">
+        <v>37</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -846,9 +1583,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="B36" t="s">
+        <v>52</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -859,9 +1595,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="B37" t="s">
+        <v>38</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -872,9 +1607,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="B38" t="s">
+        <v>35</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -885,9 +1619,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>38</v>
+      <c r="B39" t="s">
+        <v>36</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -898,9 +1631,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -911,9 +1643,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="B41" t="s">
+        <v>39</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -924,9 +1655,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>41</v>
+      <c r="B42" t="s">
+        <v>45</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -937,9 +1667,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>41</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -950,9 +1679,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="B44" t="s">
+        <v>42</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -963,9 +1691,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>43</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -976,9 +1703,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="B46" t="s">
+        <v>44</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -989,8 +1715,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
       <c r="C47">
@@ -1002,9 +1727,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="B48" t="s">
+        <v>48</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1015,9 +1739,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="B49" t="s">
+        <v>47</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1028,8 +1751,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50">
@@ -1041,8 +1763,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51">
@@ -1054,8 +1775,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52">
@@ -1067,9 +1787,8 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="B53" t="s">
+        <v>53</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1080,9 +1799,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="B54" t="s">
+        <v>54</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1093,9 +1811,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1106,9 +1823,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="B56" t="s">
+        <v>56</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1119,9 +1835,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="B57" t="s">
+        <v>60</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1132,9 +1847,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="B58" t="s">
+        <v>58</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1145,9 +1859,8 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="B59" t="s">
+        <v>59</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1158,9 +1871,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="B60" t="s">
+        <v>77</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1171,9 +1883,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="B61" t="s">
+        <v>62</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1184,8 +1895,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
       <c r="C62">
@@ -1197,9 +1907,8 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>62</v>
+      <c r="B63" t="s">
+        <v>76</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1210,9 +1919,8 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="B64" t="s">
+        <v>64</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1223,9 +1931,8 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="B65" t="s">
+        <v>63</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1236,8 +1943,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
       <c r="C66">
@@ -1249,8 +1955,7 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="0"/>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
       <c r="C67">
@@ -1262,8 +1967,7 @@
         <f t="shared" ref="A68:B131" si="1">A67+1</f>
         <v>67</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
       <c r="C68">
@@ -1275,8 +1979,7 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
       <c r="C69">
@@ -1288,9 +1991,8 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>69</v>
+      <c r="B70" t="s">
+        <v>70</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1301,9 +2003,8 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>70</v>
+      <c r="B71" t="s">
+        <v>72</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1314,9 +2015,8 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>71</v>
+      <c r="B72" t="s">
+        <v>69</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1327,9 +2027,8 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>72</v>
+      <c r="B73" t="s">
+        <v>71</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -1340,8 +2039,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
       <c r="C74">
@@ -1353,8 +2051,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
       <c r="C75">
@@ -1366,8 +2063,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
       <c r="C76">
@@ -1379,9 +2075,8 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>76</v>
+      <c r="B77" t="s">
+        <v>99</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1392,9 +2087,8 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>77</v>
+      <c r="B78" t="s">
+        <v>79</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -1405,8 +2099,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
       <c r="C79">
@@ -1418,9 +2111,8 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>79</v>
+      <c r="B80" t="s">
+        <v>80</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1431,9 +2123,8 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>80</v>
+      <c r="B81" t="s">
+        <v>91</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1444,8 +2135,7 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
       <c r="C82">
@@ -1457,8 +2147,7 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
       <c r="C83">
@@ -1470,8 +2159,7 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
       <c r="C84">
@@ -1483,9 +2171,8 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>84</v>
+      <c r="B85" t="s">
+        <v>88</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -1496,9 +2183,8 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>85</v>
+      <c r="B86" t="s">
+        <v>84</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -1509,8 +2195,7 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
       <c r="C87">
@@ -1522,8 +2207,7 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
       <c r="C88">
@@ -1535,9 +2219,8 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>88</v>
+      <c r="B89" t="s">
+        <v>85</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -1548,8 +2231,7 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
       <c r="C90">
@@ -1561,8 +2243,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
       <c r="C91">
@@ -1574,9 +2255,8 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>91</v>
+      <c r="B92" t="s">
+        <v>92</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -1587,9 +2267,8 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>92</v>
+      <c r="B93" t="s">
+        <v>93</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -1600,9 +2279,8 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>93</v>
+      <c r="B94" t="s">
+        <v>102</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -1613,9 +2291,8 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>94</v>
+      <c r="B95" t="s">
+        <v>95</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -1626,9 +2303,8 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>95</v>
+      <c r="B96" t="s">
+        <v>94</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -1639,8 +2315,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
       <c r="C97">
@@ -1652,8 +2327,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
       <c r="C98">
@@ -1665,8 +2339,7 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
       <c r="C99">
@@ -1678,9 +2351,8 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>99</v>
+      <c r="B100" t="s">
+        <v>100</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -1691,9 +2363,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>100</v>
+      <c r="B101" t="s">
+        <v>101</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -1704,9 +2375,8 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>101</v>
+      <c r="B102" t="s">
+        <v>103</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -1717,9 +2387,8 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103">
-        <f t="shared" si="1"/>
-        <v>102</v>
+      <c r="B103" t="s">
+        <v>104</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -1730,9 +2399,8 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104">
-        <f t="shared" si="1"/>
-        <v>103</v>
+      <c r="B104" t="s">
+        <v>135</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -1743,9 +2411,8 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105">
-        <f t="shared" si="1"/>
-        <v>104</v>
+      <c r="B105" t="s">
+        <v>105</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -1756,9 +2423,8 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B106">
-        <f t="shared" si="1"/>
-        <v>105</v>
+      <c r="B106" t="s">
+        <v>139</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -1769,8 +2435,7 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B107">
-        <f t="shared" si="1"/>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
       <c r="C107">
@@ -1782,8 +2447,7 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B108">
-        <f t="shared" si="1"/>
+      <c r="B108" t="s">
         <v>107</v>
       </c>
       <c r="C108">
@@ -1795,8 +2459,7 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B109">
-        <f t="shared" si="1"/>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
       <c r="C109">
@@ -1808,8 +2471,7 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B110">
-        <f t="shared" si="1"/>
+      <c r="B110" t="s">
         <v>109</v>
       </c>
       <c r="C110">
@@ -1821,8 +2483,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B111">
-        <f t="shared" si="1"/>
+      <c r="B111" t="s">
         <v>110</v>
       </c>
       <c r="C111">
@@ -1834,9 +2495,8 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B112">
-        <f t="shared" si="1"/>
-        <v>111</v>
+      <c r="B112" t="s">
+        <v>138</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -1847,9 +2507,8 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B113">
-        <f t="shared" si="1"/>
-        <v>112</v>
+      <c r="B113" t="s">
+        <v>111</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -1860,9 +2519,8 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B114">
-        <f t="shared" si="1"/>
-        <v>113</v>
+      <c r="B114" t="s">
+        <v>112</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -1873,9 +2531,8 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B115">
-        <f t="shared" si="1"/>
-        <v>114</v>
+      <c r="B115" t="s">
+        <v>113</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -1886,9 +2543,8 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B116">
-        <f t="shared" si="1"/>
-        <v>115</v>
+      <c r="B116" t="s">
+        <v>114</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -1899,9 +2555,8 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B117">
-        <f t="shared" si="1"/>
-        <v>116</v>
+      <c r="B117" t="s">
+        <v>115</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -1912,9 +2567,8 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B118">
-        <f t="shared" si="1"/>
-        <v>117</v>
+      <c r="B118" t="s">
+        <v>116</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -1925,9 +2579,8 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B119">
-        <f t="shared" si="1"/>
-        <v>118</v>
+      <c r="B119" t="s">
+        <v>117</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -1938,9 +2591,8 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B120">
-        <f t="shared" si="1"/>
-        <v>119</v>
+      <c r="B120" t="s">
+        <v>118</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -1951,9 +2603,8 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B121">
-        <f t="shared" si="1"/>
-        <v>120</v>
+      <c r="B121" t="s">
+        <v>119</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -1964,9 +2615,8 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B122">
-        <f t="shared" si="1"/>
-        <v>121</v>
+      <c r="B122" t="s">
+        <v>120</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -1977,9 +2627,8 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B123">
-        <f t="shared" si="1"/>
-        <v>122</v>
+      <c r="B123" t="s">
+        <v>121</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -1990,9 +2639,8 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B124">
-        <f t="shared" si="1"/>
-        <v>123</v>
+      <c r="B124" t="s">
+        <v>122</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -2003,9 +2651,8 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125">
-        <f t="shared" si="1"/>
-        <v>124</v>
+      <c r="B125" t="s">
+        <v>123</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2016,9 +2663,8 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126">
-        <f t="shared" si="1"/>
-        <v>125</v>
+      <c r="B126" t="s">
+        <v>124</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -2029,9 +2675,8 @@
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127">
-        <f t="shared" si="1"/>
-        <v>126</v>
+      <c r="B127" t="s">
+        <v>125</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -2042,9 +2687,8 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128">
-        <f t="shared" si="1"/>
-        <v>127</v>
+      <c r="B128" t="s">
+        <v>129</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -2055,9 +2699,8 @@
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129">
-        <f t="shared" si="1"/>
-        <v>128</v>
+      <c r="B129" t="s">
+        <v>126</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -2068,9 +2711,8 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130">
-        <f t="shared" si="1"/>
-        <v>129</v>
+      <c r="B130" t="s">
+        <v>127</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -2081,9 +2723,8 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="B131">
-        <f t="shared" si="1"/>
-        <v>130</v>
+      <c r="B131" t="s">
+        <v>128</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -2094,9 +2735,8 @@
         <f t="shared" ref="A132:B195" si="2">A131+1</f>
         <v>131</v>
       </c>
-      <c r="B132">
-        <f t="shared" si="2"/>
-        <v>131</v>
+      <c r="B132" t="s">
+        <v>130</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -2107,9 +2747,8 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133">
-        <f t="shared" si="2"/>
-        <v>132</v>
+      <c r="B133" t="s">
+        <v>131</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -2120,9 +2759,8 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134">
-        <f t="shared" si="2"/>
-        <v>133</v>
+      <c r="B134" t="s">
+        <v>132</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2133,9 +2771,8 @@
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135">
-        <f t="shared" si="2"/>
-        <v>134</v>
+      <c r="B135" t="s">
+        <v>133</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -2146,9 +2783,8 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136">
-        <f t="shared" si="2"/>
-        <v>135</v>
+      <c r="B136" t="s">
+        <v>134</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -2159,9 +2795,8 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137">
-        <f t="shared" si="2"/>
-        <v>136</v>
+      <c r="B137" t="s">
+        <v>137</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -2172,9 +2807,8 @@
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138">
-        <f t="shared" si="2"/>
-        <v>137</v>
+      <c r="B138" t="s">
+        <v>136</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -2185,9 +2819,8 @@
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139">
-        <f t="shared" si="2"/>
-        <v>138</v>
+      <c r="B139" t="s">
+        <v>140</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -2198,9 +2831,8 @@
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140">
-        <f t="shared" si="2"/>
-        <v>139</v>
+      <c r="B140" t="s">
+        <v>141</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -2211,9 +2843,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141">
-        <f t="shared" si="2"/>
-        <v>140</v>
+      <c r="B141" t="s">
+        <v>155</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2224,9 +2855,8 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142">
-        <f t="shared" si="2"/>
-        <v>141</v>
+      <c r="B142" t="s">
+        <v>142</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -2237,9 +2867,8 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143">
-        <f t="shared" si="2"/>
-        <v>142</v>
+      <c r="B143" t="s">
+        <v>143</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -2250,9 +2879,8 @@
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144">
-        <f t="shared" si="2"/>
-        <v>143</v>
+      <c r="B144" t="s">
+        <v>144</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -2263,9 +2891,8 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145">
-        <f t="shared" si="2"/>
-        <v>144</v>
+      <c r="B145" t="s">
+        <v>145</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -2276,9 +2903,8 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146">
-        <f t="shared" si="2"/>
-        <v>145</v>
+      <c r="B146" t="s">
+        <v>146</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -2289,9 +2915,8 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147">
-        <f t="shared" si="2"/>
-        <v>146</v>
+      <c r="B147" t="s">
+        <v>147</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -2302,9 +2927,8 @@
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148">
-        <f t="shared" si="2"/>
-        <v>147</v>
+      <c r="B148" t="s">
+        <v>148</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -2315,9 +2939,8 @@
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149">
-        <f t="shared" si="2"/>
-        <v>148</v>
+      <c r="B149" t="s">
+        <v>149</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2328,9 +2951,8 @@
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150">
-        <f t="shared" si="2"/>
-        <v>149</v>
+      <c r="B150" t="s">
+        <v>150</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -2341,9 +2963,8 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151">
-        <f t="shared" si="2"/>
-        <v>150</v>
+      <c r="B151" t="s">
+        <v>151</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -2354,9 +2975,8 @@
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152">
-        <f t="shared" si="2"/>
-        <v>151</v>
+      <c r="B152" t="s">
+        <v>152</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2367,9 +2987,8 @@
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153">
-        <f t="shared" si="2"/>
-        <v>152</v>
+      <c r="B153" t="s">
+        <v>153</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -2380,9 +2999,8 @@
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154">
-        <f t="shared" si="2"/>
-        <v>153</v>
+      <c r="B154" t="s">
+        <v>154</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -2393,9 +3011,8 @@
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155">
-        <f t="shared" si="2"/>
-        <v>154</v>
+      <c r="B155" t="s">
+        <v>156</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -2406,9 +3023,8 @@
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B156">
-        <f t="shared" si="2"/>
-        <v>155</v>
+      <c r="B156" t="s">
+        <v>157</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -2419,9 +3035,8 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B157">
-        <f t="shared" si="2"/>
-        <v>156</v>
+      <c r="B157" t="s">
+        <v>158</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2432,9 +3047,8 @@
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B158">
-        <f t="shared" si="2"/>
-        <v>157</v>
+      <c r="B158" t="s">
+        <v>159</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -2445,9 +3059,8 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B159">
-        <f t="shared" si="2"/>
-        <v>158</v>
+      <c r="B159" t="s">
+        <v>160</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -2458,9 +3071,8 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B160">
-        <f t="shared" si="2"/>
-        <v>159</v>
+      <c r="B160" t="s">
+        <v>161</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -2471,9 +3083,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B161">
-        <f t="shared" si="2"/>
-        <v>160</v>
+      <c r="B161" t="s">
+        <v>162</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -2484,9 +3095,8 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B162">
-        <f t="shared" si="2"/>
-        <v>161</v>
+      <c r="B162" t="s">
+        <v>163</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -2497,9 +3107,8 @@
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B163">
-        <f t="shared" si="2"/>
-        <v>162</v>
+      <c r="B163" t="s">
+        <v>164</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -2510,9 +3119,8 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B164">
-        <f t="shared" si="2"/>
-        <v>163</v>
+      <c r="B164" t="s">
+        <v>165</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -2523,9 +3131,8 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B165">
-        <f t="shared" si="2"/>
-        <v>164</v>
+      <c r="B165" t="s">
+        <v>167</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -2536,9 +3143,8 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B166">
-        <f t="shared" si="2"/>
-        <v>165</v>
+      <c r="B166" t="s">
+        <v>168</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -2549,8 +3155,7 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B167">
-        <f t="shared" si="2"/>
+      <c r="B167" t="s">
         <v>166</v>
       </c>
       <c r="C167">
@@ -2562,9 +3167,8 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B168">
-        <f t="shared" si="2"/>
-        <v>167</v>
+      <c r="B168" t="s">
+        <v>169</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -2575,9 +3179,8 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B169">
-        <f t="shared" si="2"/>
-        <v>168</v>
+      <c r="B169" t="s">
+        <v>170</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -2588,9 +3191,8 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B170">
-        <f t="shared" si="2"/>
-        <v>169</v>
+      <c r="B170" t="s">
+        <v>171</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -2601,9 +3203,8 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B171">
-        <f t="shared" si="2"/>
-        <v>170</v>
+      <c r="B171" t="s">
+        <v>172</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -2614,9 +3215,8 @@
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B172">
-        <f t="shared" si="2"/>
-        <v>171</v>
+      <c r="B172" t="s">
+        <v>173</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -2627,22 +3227,20 @@
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B173">
-        <f t="shared" si="2"/>
-        <v>172</v>
+      <c r="B173" t="s">
+        <v>174</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.15">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B174">
-        <f t="shared" si="2"/>
-        <v>173</v>
+      <c r="B174" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -2653,9 +3251,8 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B175">
-        <f t="shared" si="2"/>
-        <v>174</v>
+      <c r="B175" t="s">
+        <v>175</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -2666,9 +3263,8 @@
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B176">
-        <f t="shared" si="2"/>
-        <v>175</v>
+      <c r="B176" t="s">
+        <v>177</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -2679,9 +3275,8 @@
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B177">
-        <f t="shared" si="2"/>
-        <v>176</v>
+      <c r="B177" t="s">
+        <v>178</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -2692,9 +3287,8 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B178">
-        <f t="shared" si="2"/>
-        <v>177</v>
+      <c r="B178" t="s">
+        <v>180</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -2705,9 +3299,8 @@
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B179">
-        <f t="shared" si="2"/>
-        <v>178</v>
+      <c r="B179" t="s">
+        <v>179</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -2718,10 +3311,6 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B180">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
       <c r="C180">
         <v>1</v>
       </c>
@@ -2731,9 +3320,8 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B181">
-        <f t="shared" si="2"/>
-        <v>180</v>
+      <c r="B181" t="s">
+        <v>181</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -2744,9 +3332,8 @@
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B182">
-        <f t="shared" si="2"/>
-        <v>181</v>
+      <c r="B182" t="s">
+        <v>183</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -2757,10 +3344,6 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B183">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
       <c r="C183">
         <v>1</v>
       </c>
@@ -2770,9 +3353,8 @@
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B184">
-        <f t="shared" si="2"/>
-        <v>183</v>
+      <c r="B184" t="s">
+        <v>182</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -2783,10 +3365,6 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B185">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
       <c r="C185">
         <v>1</v>
       </c>
@@ -2796,9 +3374,8 @@
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B186">
-        <f t="shared" si="2"/>
-        <v>185</v>
+      <c r="B186" t="s">
+        <v>184</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -2809,10 +3386,6 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B187">
-        <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
       <c r="C187">
         <v>1</v>
       </c>
@@ -2822,10 +3395,6 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B188">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
       <c r="C188">
         <v>1</v>
       </c>
@@ -2835,10 +3404,6 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B189">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
       <c r="C189">
         <v>1</v>
       </c>
@@ -2848,10 +3413,6 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B190">
-        <f t="shared" si="2"/>
-        <v>189</v>
-      </c>
       <c r="C190">
         <v>1</v>
       </c>
@@ -2861,10 +3422,6 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B191">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
       <c r="C191">
         <v>1</v>
       </c>
@@ -2874,10 +3431,6 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B192">
-        <f t="shared" si="2"/>
-        <v>191</v>
-      </c>
       <c r="C192">
         <v>1</v>
       </c>
@@ -2887,10 +3440,6 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B193">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
       <c r="C193">
         <v>1</v>
       </c>
@@ -2900,20 +3449,12 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B194">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
       <c r="C194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195">
-        <f t="shared" si="2"/>
-        <v>194</v>
-      </c>
-      <c r="B195">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
@@ -2926,10 +3467,6 @@
         <f t="shared" ref="A196:B201" si="3">A195+1</f>
         <v>195</v>
       </c>
-      <c r="B196">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
       <c r="C196">
         <v>1</v>
       </c>
@@ -2939,10 +3476,6 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B197">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
       <c r="C197">
         <v>1</v>
       </c>
@@ -2952,9 +3485,8 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B198">
-        <f t="shared" si="3"/>
-        <v>197</v>
+      <c r="B198" t="s">
+        <v>185</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -2965,10 +3497,6 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B199">
-        <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
       <c r="C199">
         <v>1</v>
       </c>
@@ -2978,10 +3506,6 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B200">
-        <f t="shared" si="3"/>
-        <v>199</v>
-      </c>
       <c r="C200">
         <v>1</v>
       </c>
@@ -2991,10 +3515,6 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B201">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
       <c r="C201">
         <v>1</v>
       </c>
@@ -3002,6 +3522,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/monster.xlsx
+++ b/monster.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五行影虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清虚石虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>御虚螳螂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,30 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>渡缘烈虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎罗无虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问道铁虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金龙雪虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>惊涛仙虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>落尘锡蝎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太乙黑虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,14 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>沧海引虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊云离虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彩琦黑蚕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白羽乾蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>神焰尘虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,30 +70,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无银暗虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开膛笑蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>极意裂虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>却邪冰虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>五岳骨虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白云珠虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绣金飞蛾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,38 +86,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影牙飞蛾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧涛桐虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托月肉虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法性石蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>风雷太蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>血阳蟒蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离火灵虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天霄绿蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒灵焱虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鬼毒灵虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火凤石虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>域霆绯虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,42 +114,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潜夜雷虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月洛石蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寒梅绿虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕义蓝蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣晨铁蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>镏金白蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天尊仙虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涅槃武虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雷太蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双重星蜂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,38 +130,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红月阳虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲霄隐虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斩影尘蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>震天靛蝶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>古巨凤蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花赤斗虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦织雪虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵角霞蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百变赤蛾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子午铜虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武曲铜虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纱罗螳螂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,14 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碎星焰虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金凤烈蝶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天泽玉蝶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>真极蓝蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七圣巨蚊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百黄裂虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伏羲绿蝇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成光土虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>达摩银虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,18 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>千青裂虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤羽毒蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软皮钢虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>穿空焱蚁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>惊魂橙蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玄龟瑶蚁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地煞血蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临枫蕊蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,22 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成光银蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无恨黄蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月读酝蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天武晶蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钢血蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五首玉蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双头霜华蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苍狼缎虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虚空光虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虹光蚊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凌霄蜂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,26 +398,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苍云梵虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炼狱鹦虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凤纹绿虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩龙艳虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>螺旋革虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金列蜈蚣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皇雷缨蛛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金翎玄蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,18 +442,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天哲红霞蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鬼毒千蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙陨蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碎尸冰绝蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -690,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双橙琉蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游龙石蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,10 +463,6 @@
   </si>
   <si>
     <t>千里追风蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上裂砂蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,23 +508,335 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>玄霜白蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵幻蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶玉虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幽冥毒蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>仙灵鳞蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗王赤阳蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥毒蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪光雷蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慾天金蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五裂土蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>鬼面骨蛛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玄霜白蛇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵幻蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶玉虫</t>
+    <t>金虹九仙蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残阳朱蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金狮彩蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除命铁蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙牙蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云晶幻水熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九霄水虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤炎九吻虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断肠土虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒灵焱虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄焰翼虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影牙飞蛾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡缘烈蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎罗毛蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问道碧虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿翼龙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行影虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜龙电蝎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沧海断筋虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊云玄木虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人面乾蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无银暗蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开膛蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石坎邪虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白云珠蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧涛桐蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托月肉蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霄黑斑蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火凤石蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜夜雷蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒梅绿蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣晨铁蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕义蓝腮蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天尊仙虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃武蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红月阳蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲霄隐蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花赤金蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震天靛蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵露霞蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦织雪吻虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午铜虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武曲铜蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金凤烈蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清虚石虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎星焰蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真极蓝足蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百黄魔眼蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千青魔眼蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成光土蚕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳毒蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千足钢虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射毒缎虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊魂梵阳蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤目晶花蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成光龙蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五首蛇王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天武蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄目追魂蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇异碧蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹光血蚊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍云青阳虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤纹血甲虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬龙艳虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋革虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无相幻形蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天哲红霞蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨龙毒蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双生琉蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上裂砂蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象角巨蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活杀蚁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1176,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1191,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1200,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1212,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1224,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1236,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1248,10 +1316,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1260,10 +1328,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1272,10 +1340,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1284,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1296,10 +1364,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1308,10 +1376,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1320,10 +1388,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1332,10 +1400,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1344,10 +1412,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -1356,10 +1424,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -1368,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -1380,10 +1448,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1392,10 +1460,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1404,10 +1472,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -1416,10 +1484,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -1428,10 +1496,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -1440,10 +1508,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1452,10 +1520,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1464,10 +1532,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1476,7 +1544,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1488,10 +1556,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -1500,10 +1568,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -1512,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1524,10 +1592,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1536,10 +1604,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
@@ -1548,10 +1616,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1560,10 +1628,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1572,10 +1640,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1584,10 +1652,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1596,10 +1664,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -1608,10 +1676,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1620,10 +1688,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1632,10 +1700,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1644,10 +1712,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1656,10 +1724,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1668,10 +1736,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1680,10 +1748,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1692,10 +1760,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1704,10 +1772,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1716,10 +1784,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1728,7 +1796,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1740,10 +1808,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1752,10 +1820,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1764,10 +1832,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1776,10 +1844,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1788,10 +1856,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1800,10 +1868,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -1812,10 +1880,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1824,10 +1892,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1836,10 +1904,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1848,10 +1916,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1860,10 +1928,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -1872,10 +1940,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1884,10 +1952,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1896,10 +1964,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1908,10 +1976,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1920,10 +1988,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1932,10 +2000,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1944,10 +2012,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1956,10 +2024,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1968,10 +2036,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1980,10 +2048,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1992,10 +2060,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2004,7 +2072,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2016,10 +2084,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2028,10 +2096,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2040,10 +2108,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2052,10 +2120,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2064,10 +2132,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2076,7 +2144,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2088,10 +2156,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2100,10 +2168,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2112,10 +2180,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2124,10 +2192,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2136,10 +2204,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2148,10 +2216,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2160,10 +2228,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2172,10 +2240,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2184,10 +2252,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2196,10 +2264,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2208,10 +2276,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2220,10 +2288,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2232,10 +2300,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -2244,10 +2312,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2256,10 +2324,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2268,10 +2336,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2280,10 +2348,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -2292,10 +2360,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -2304,10 +2372,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -2316,10 +2384,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -2328,10 +2396,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -2340,10 +2408,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -2352,10 +2420,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -2364,10 +2432,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2376,10 +2444,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -2388,10 +2456,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -2400,10 +2468,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -2412,10 +2480,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -2424,10 +2492,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -2436,10 +2504,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -2448,10 +2516,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -2460,10 +2528,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -2472,10 +2540,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -2484,10 +2552,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -2496,10 +2564,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -2508,10 +2576,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -2520,10 +2588,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -2532,10 +2600,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -2544,10 +2612,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -2556,10 +2624,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -2568,10 +2636,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -2580,10 +2648,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -2592,10 +2660,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -2604,10 +2672,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -2616,10 +2684,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -2628,10 +2696,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -2640,10 +2708,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -2652,10 +2720,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -2664,10 +2732,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -2676,10 +2744,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>188</v>
+      </c>
+      <c r="C127">
         <v>125</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -2688,10 +2756,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -2700,10 +2768,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -2712,10 +2780,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -2724,10 +2792,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -2736,10 +2804,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -2748,10 +2816,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -2760,10 +2828,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -2772,10 +2840,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -2784,10 +2852,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -2796,10 +2864,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -2808,10 +2876,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -2820,10 +2888,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -2832,10 +2900,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -2844,10 +2912,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -2856,10 +2924,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -2868,10 +2936,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -2880,10 +2948,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -2892,10 +2960,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -2904,10 +2972,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -2916,10 +2984,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -2928,10 +2996,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -2940,7 +3008,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -2952,10 +3020,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -2964,10 +3032,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -2976,7 +3044,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -2988,10 +3056,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -3000,10 +3068,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -3012,7 +3080,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3024,10 +3092,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -3036,10 +3104,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -3048,10 +3116,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -3060,10 +3128,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -3072,10 +3140,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -3084,10 +3152,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -3096,10 +3164,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -3108,10 +3176,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -3120,10 +3188,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -3132,10 +3200,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -3144,10 +3212,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -3156,10 +3224,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -3168,10 +3236,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -3180,10 +3248,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -3192,10 +3260,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -3204,10 +3272,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -3216,10 +3284,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -3228,10 +3296,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.15">
@@ -3240,10 +3308,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -3252,10 +3320,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -3264,10 +3332,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -3276,10 +3344,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -3288,10 +3356,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -3300,10 +3368,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -3311,8 +3379,11 @@
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
+      <c r="B180" t="s">
+        <v>124</v>
+      </c>
       <c r="C180">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -3321,10 +3392,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -3333,10 +3404,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -3344,8 +3415,11 @@
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
+      <c r="B183" t="s">
+        <v>129</v>
+      </c>
       <c r="C183">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -3354,10 +3428,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -3365,8 +3439,11 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
+      <c r="B185" t="s">
+        <v>125</v>
+      </c>
       <c r="C185">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -3375,10 +3452,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -3386,8 +3463,11 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
+      <c r="B187" t="s">
+        <v>126</v>
+      </c>
       <c r="C187">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -3395,8 +3475,11 @@
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
+      <c r="B188" t="s">
+        <v>134</v>
+      </c>
       <c r="C188">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -3404,8 +3487,11 @@
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
+      <c r="B189" t="s">
+        <v>127</v>
+      </c>
       <c r="C189">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -3413,8 +3499,11 @@
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
+      <c r="B190" t="s">
+        <v>133</v>
+      </c>
       <c r="C190">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -3422,8 +3511,11 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
+      <c r="B191" t="s">
+        <v>128</v>
+      </c>
       <c r="C191">
-        <v>1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -3431,8 +3523,11 @@
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
+      <c r="B192" t="s">
+        <v>202</v>
+      </c>
       <c r="C192">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -3440,8 +3535,11 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
+      <c r="B193" t="s">
+        <v>131</v>
+      </c>
       <c r="C193">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -3449,8 +3547,11 @@
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
+      <c r="B194" t="s">
+        <v>132</v>
+      </c>
       <c r="C194">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -3458,8 +3559,11 @@
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
       <c r="C195">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -3467,6 +3571,9 @@
         <f t="shared" ref="A196:B201" si="3">A195+1</f>
         <v>195</v>
       </c>
+      <c r="B196" t="s">
+        <v>136</v>
+      </c>
       <c r="C196">
         <v>1</v>
       </c>
@@ -3476,8 +3583,11 @@
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
+      <c r="B197" t="s">
+        <v>135</v>
+      </c>
       <c r="C197">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -3486,10 +3596,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -3497,8 +3607,11 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
+      <c r="B199" t="s">
+        <v>137</v>
+      </c>
       <c r="C199">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -3506,6 +3619,9 @@
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
+      <c r="B200" t="s">
+        <v>138</v>
+      </c>
       <c r="C200">
         <v>1</v>
       </c>
@@ -3515,8 +3631,4511 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="B201" t="s">
+        <v>139</v>
+      </c>
       <c r="C201">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <f t="shared" ref="A202" si="4">A201+1</f>
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <f t="shared" ref="A203" si="5">A202+1</f>
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <f t="shared" ref="A204" si="6">A203+1</f>
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <f t="shared" ref="A205" si="7">A204+1</f>
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <f t="shared" ref="A206" si="8">A205+1</f>
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <f t="shared" ref="A207" si="9">A206+1</f>
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <f t="shared" ref="A208" si="10">A207+1</f>
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <f t="shared" ref="A209" si="11">A208+1</f>
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <f t="shared" ref="A210" si="12">A209+1</f>
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <f t="shared" ref="A211" si="13">A210+1</f>
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <f t="shared" ref="A212" si="14">A211+1</f>
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <f t="shared" ref="A213" si="15">A212+1</f>
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <f t="shared" ref="A214" si="16">A213+1</f>
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <f t="shared" ref="A215" si="17">A214+1</f>
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <f t="shared" ref="A216" si="18">A215+1</f>
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <f t="shared" ref="A217" si="19">A216+1</f>
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <f t="shared" ref="A218" si="20">A217+1</f>
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <f t="shared" ref="A219" si="21">A218+1</f>
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <f t="shared" ref="A220" si="22">A219+1</f>
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <f t="shared" ref="A221" si="23">A220+1</f>
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <f t="shared" ref="A222" si="24">A221+1</f>
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <f t="shared" ref="A223" si="25">A222+1</f>
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <f t="shared" ref="A224" si="26">A223+1</f>
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <f t="shared" ref="A225" si="27">A224+1</f>
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <f t="shared" ref="A226" si="28">A225+1</f>
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <f t="shared" ref="A227" si="29">A226+1</f>
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <f t="shared" ref="A228" si="30">A227+1</f>
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <f t="shared" ref="A229" si="31">A228+1</f>
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <f t="shared" ref="A230" si="32">A229+1</f>
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <f t="shared" ref="A231" si="33">A230+1</f>
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <f t="shared" ref="A232" si="34">A231+1</f>
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <f t="shared" ref="A233" si="35">A232+1</f>
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <f t="shared" ref="A234" si="36">A233+1</f>
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <f t="shared" ref="A235" si="37">A234+1</f>
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <f t="shared" ref="A236" si="38">A235+1</f>
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <f t="shared" ref="A237" si="39">A236+1</f>
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <f t="shared" ref="A238" si="40">A237+1</f>
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <f t="shared" ref="A239" si="41">A238+1</f>
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <f t="shared" ref="A240" si="42">A239+1</f>
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <f t="shared" ref="A241" si="43">A240+1</f>
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <f t="shared" ref="A242" si="44">A241+1</f>
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <f t="shared" ref="A243" si="45">A242+1</f>
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <f t="shared" ref="A244" si="46">A243+1</f>
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <f t="shared" ref="A245" si="47">A244+1</f>
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <f t="shared" ref="A246" si="48">A245+1</f>
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <f t="shared" ref="A247" si="49">A246+1</f>
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <f t="shared" ref="A248" si="50">A247+1</f>
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <f t="shared" ref="A249" si="51">A248+1</f>
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <f t="shared" ref="A250" si="52">A249+1</f>
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <f t="shared" ref="A251" si="53">A250+1</f>
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <f t="shared" ref="A252" si="54">A251+1</f>
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <f t="shared" ref="A253" si="55">A252+1</f>
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <f t="shared" ref="A254" si="56">A253+1</f>
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <f t="shared" ref="A255" si="57">A254+1</f>
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <f t="shared" ref="A256" si="58">A255+1</f>
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <f t="shared" ref="A257" si="59">A256+1</f>
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <f t="shared" ref="A258" si="60">A257+1</f>
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <f t="shared" ref="A259" si="61">A258+1</f>
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <f t="shared" ref="A260" si="62">A259+1</f>
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <f t="shared" ref="A261" si="63">A260+1</f>
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <f t="shared" ref="A262" si="64">A261+1</f>
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <f t="shared" ref="A263" si="65">A262+1</f>
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <f t="shared" ref="A264" si="66">A263+1</f>
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <f t="shared" ref="A265" si="67">A264+1</f>
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <f t="shared" ref="A266" si="68">A265+1</f>
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <f t="shared" ref="A267" si="69">A266+1</f>
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <f t="shared" ref="A268" si="70">A267+1</f>
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <f t="shared" ref="A269" si="71">A268+1</f>
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <f t="shared" ref="A270" si="72">A269+1</f>
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <f t="shared" ref="A271" si="73">A270+1</f>
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <f t="shared" ref="A272" si="74">A271+1</f>
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <f t="shared" ref="A273" si="75">A272+1</f>
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <f t="shared" ref="A274" si="76">A273+1</f>
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <f t="shared" ref="A275" si="77">A274+1</f>
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <f t="shared" ref="A276" si="78">A275+1</f>
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <f t="shared" ref="A277" si="79">A276+1</f>
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <f t="shared" ref="A278" si="80">A277+1</f>
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <f t="shared" ref="A279" si="81">A278+1</f>
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <f t="shared" ref="A280" si="82">A279+1</f>
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <f t="shared" ref="A281" si="83">A280+1</f>
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <f t="shared" ref="A282" si="84">A281+1</f>
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <f t="shared" ref="A283" si="85">A282+1</f>
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <f t="shared" ref="A284" si="86">A283+1</f>
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <f t="shared" ref="A285" si="87">A284+1</f>
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <f t="shared" ref="A286" si="88">A285+1</f>
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <f t="shared" ref="A287" si="89">A286+1</f>
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <f t="shared" ref="A288" si="90">A287+1</f>
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <f t="shared" ref="A289" si="91">A288+1</f>
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <f t="shared" ref="A290" si="92">A289+1</f>
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <f t="shared" ref="A291" si="93">A290+1</f>
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <f t="shared" ref="A292" si="94">A291+1</f>
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <f t="shared" ref="A293" si="95">A292+1</f>
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <f t="shared" ref="A294" si="96">A293+1</f>
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <f t="shared" ref="A295" si="97">A294+1</f>
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <f t="shared" ref="A296" si="98">A295+1</f>
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <f t="shared" ref="A297" si="99">A296+1</f>
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <f t="shared" ref="A298" si="100">A297+1</f>
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <f t="shared" ref="A299" si="101">A298+1</f>
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <f t="shared" ref="A300" si="102">A299+1</f>
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <f t="shared" ref="A301" si="103">A300+1</f>
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <f t="shared" ref="A302" si="104">A301+1</f>
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <f t="shared" ref="A303" si="105">A302+1</f>
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <f t="shared" ref="A304" si="106">A303+1</f>
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <f t="shared" ref="A305" si="107">A304+1</f>
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <f t="shared" ref="A306" si="108">A305+1</f>
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <f t="shared" ref="A307" si="109">A306+1</f>
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <f t="shared" ref="A308" si="110">A307+1</f>
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <f t="shared" ref="A309" si="111">A308+1</f>
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <f t="shared" ref="A310" si="112">A309+1</f>
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <f t="shared" ref="A311" si="113">A310+1</f>
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <f t="shared" ref="A312" si="114">A311+1</f>
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <f t="shared" ref="A313" si="115">A312+1</f>
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <f t="shared" ref="A314" si="116">A313+1</f>
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <f t="shared" ref="A315" si="117">A314+1</f>
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <f t="shared" ref="A316" si="118">A315+1</f>
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <f t="shared" ref="A317" si="119">A316+1</f>
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <f t="shared" ref="A318" si="120">A317+1</f>
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <f t="shared" ref="A319" si="121">A318+1</f>
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <f t="shared" ref="A320" si="122">A319+1</f>
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <f t="shared" ref="A321" si="123">A320+1</f>
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <f t="shared" ref="A322" si="124">A321+1</f>
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <f t="shared" ref="A323" si="125">A322+1</f>
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <f t="shared" ref="A324" si="126">A323+1</f>
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <f t="shared" ref="A325" si="127">A324+1</f>
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <f t="shared" ref="A326" si="128">A325+1</f>
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <f t="shared" ref="A327" si="129">A326+1</f>
+        <v>326</v>
+      </c>
+      <c r="C327">
         <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <f t="shared" ref="A328" si="130">A327+1</f>
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <f t="shared" ref="A329" si="131">A328+1</f>
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <f t="shared" ref="A330" si="132">A329+1</f>
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <f t="shared" ref="A331" si="133">A330+1</f>
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <f t="shared" ref="A332" si="134">A331+1</f>
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <f t="shared" ref="A333" si="135">A332+1</f>
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <f t="shared" ref="A334" si="136">A333+1</f>
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <f t="shared" ref="A335" si="137">A334+1</f>
+        <v>334</v>
+      </c>
+      <c r="C335">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <f t="shared" ref="A336" si="138">A335+1</f>
+        <v>335</v>
+      </c>
+      <c r="C336">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <f t="shared" ref="A337" si="139">A336+1</f>
+        <v>336</v>
+      </c>
+      <c r="C337">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <f t="shared" ref="A338" si="140">A337+1</f>
+        <v>337</v>
+      </c>
+      <c r="C338">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <f t="shared" ref="A339" si="141">A338+1</f>
+        <v>338</v>
+      </c>
+      <c r="C339">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <f t="shared" ref="A340" si="142">A339+1</f>
+        <v>339</v>
+      </c>
+      <c r="C340">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <f t="shared" ref="A341" si="143">A340+1</f>
+        <v>340</v>
+      </c>
+      <c r="C341">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <f t="shared" ref="A342" si="144">A341+1</f>
+        <v>341</v>
+      </c>
+      <c r="C342">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <f t="shared" ref="A343" si="145">A342+1</f>
+        <v>342</v>
+      </c>
+      <c r="C343">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <f t="shared" ref="A344" si="146">A343+1</f>
+        <v>343</v>
+      </c>
+      <c r="C344">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <f t="shared" ref="A345" si="147">A344+1</f>
+        <v>344</v>
+      </c>
+      <c r="C345">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <f t="shared" ref="A346" si="148">A345+1</f>
+        <v>345</v>
+      </c>
+      <c r="C346">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <f t="shared" ref="A347" si="149">A346+1</f>
+        <v>346</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <f t="shared" ref="A348" si="150">A347+1</f>
+        <v>347</v>
+      </c>
+      <c r="C348">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <f t="shared" ref="A349" si="151">A348+1</f>
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <f t="shared" ref="A350" si="152">A349+1</f>
+        <v>349</v>
+      </c>
+      <c r="C350">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <f t="shared" ref="A351" si="153">A350+1</f>
+        <v>350</v>
+      </c>
+      <c r="C351">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <f t="shared" ref="A352" si="154">A351+1</f>
+        <v>351</v>
+      </c>
+      <c r="C352">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <f t="shared" ref="A353" si="155">A352+1</f>
+        <v>352</v>
+      </c>
+      <c r="C353">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <f t="shared" ref="A354" si="156">A353+1</f>
+        <v>353</v>
+      </c>
+      <c r="C354">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <f t="shared" ref="A355" si="157">A354+1</f>
+        <v>354</v>
+      </c>
+      <c r="C355">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <f t="shared" ref="A356" si="158">A355+1</f>
+        <v>355</v>
+      </c>
+      <c r="C356">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A357">
+        <f t="shared" ref="A357" si="159">A356+1</f>
+        <v>356</v>
+      </c>
+      <c r="C357">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358">
+        <f t="shared" ref="A358" si="160">A357+1</f>
+        <v>357</v>
+      </c>
+      <c r="C358">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <f t="shared" ref="A359" si="161">A358+1</f>
+        <v>358</v>
+      </c>
+      <c r="C359">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360">
+        <f t="shared" ref="A360" si="162">A359+1</f>
+        <v>359</v>
+      </c>
+      <c r="C360">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A361">
+        <f t="shared" ref="A361" si="163">A360+1</f>
+        <v>360</v>
+      </c>
+      <c r="C361">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362">
+        <f t="shared" ref="A362" si="164">A361+1</f>
+        <v>361</v>
+      </c>
+      <c r="C362">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363">
+        <f t="shared" ref="A363" si="165">A362+1</f>
+        <v>362</v>
+      </c>
+      <c r="C363">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364">
+        <f t="shared" ref="A364" si="166">A363+1</f>
+        <v>363</v>
+      </c>
+      <c r="C364">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365">
+        <f t="shared" ref="A365" si="167">A364+1</f>
+        <v>364</v>
+      </c>
+      <c r="C365">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366">
+        <f t="shared" ref="A366" si="168">A365+1</f>
+        <v>365</v>
+      </c>
+      <c r="C366">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <f t="shared" ref="A367" si="169">A366+1</f>
+        <v>366</v>
+      </c>
+      <c r="C367">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <f t="shared" ref="A368" si="170">A367+1</f>
+        <v>367</v>
+      </c>
+      <c r="C368">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <f t="shared" ref="A369" si="171">A368+1</f>
+        <v>368</v>
+      </c>
+      <c r="C369">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <f t="shared" ref="A370" si="172">A369+1</f>
+        <v>369</v>
+      </c>
+      <c r="C370">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <f t="shared" ref="A371" si="173">A370+1</f>
+        <v>370</v>
+      </c>
+      <c r="C371">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <f t="shared" ref="A372" si="174">A371+1</f>
+        <v>371</v>
+      </c>
+      <c r="C372">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <f t="shared" ref="A373" si="175">A372+1</f>
+        <v>372</v>
+      </c>
+      <c r="C373">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <f t="shared" ref="A374" si="176">A373+1</f>
+        <v>373</v>
+      </c>
+      <c r="C374">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <f t="shared" ref="A375" si="177">A374+1</f>
+        <v>374</v>
+      </c>
+      <c r="C375">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <f t="shared" ref="A376" si="178">A375+1</f>
+        <v>375</v>
+      </c>
+      <c r="C376">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <f t="shared" ref="A377" si="179">A376+1</f>
+        <v>376</v>
+      </c>
+      <c r="C377">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <f t="shared" ref="A378" si="180">A377+1</f>
+        <v>377</v>
+      </c>
+      <c r="C378">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <f t="shared" ref="A379" si="181">A378+1</f>
+        <v>378</v>
+      </c>
+      <c r="C379">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <f t="shared" ref="A380" si="182">A379+1</f>
+        <v>379</v>
+      </c>
+      <c r="C380">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <f t="shared" ref="A381" si="183">A380+1</f>
+        <v>380</v>
+      </c>
+      <c r="C381">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <f t="shared" ref="A382" si="184">A381+1</f>
+        <v>381</v>
+      </c>
+      <c r="C382">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <f t="shared" ref="A383" si="185">A382+1</f>
+        <v>382</v>
+      </c>
+      <c r="C383">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <f t="shared" ref="A384" si="186">A383+1</f>
+        <v>383</v>
+      </c>
+      <c r="C384">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <f t="shared" ref="A385" si="187">A384+1</f>
+        <v>384</v>
+      </c>
+      <c r="C385">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <f t="shared" ref="A386" si="188">A385+1</f>
+        <v>385</v>
+      </c>
+      <c r="C386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <f t="shared" ref="A387" si="189">A386+1</f>
+        <v>386</v>
+      </c>
+      <c r="C387">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <f t="shared" ref="A388" si="190">A387+1</f>
+        <v>387</v>
+      </c>
+      <c r="C388">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <f t="shared" ref="A389" si="191">A388+1</f>
+        <v>388</v>
+      </c>
+      <c r="C389">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <f t="shared" ref="A390" si="192">A389+1</f>
+        <v>389</v>
+      </c>
+      <c r="C390">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <f t="shared" ref="A391" si="193">A390+1</f>
+        <v>390</v>
+      </c>
+      <c r="C391">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <f t="shared" ref="A392" si="194">A391+1</f>
+        <v>391</v>
+      </c>
+      <c r="C392">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <f t="shared" ref="A393" si="195">A392+1</f>
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <f t="shared" ref="A394" si="196">A393+1</f>
+        <v>393</v>
+      </c>
+      <c r="C394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <f t="shared" ref="A395" si="197">A394+1</f>
+        <v>394</v>
+      </c>
+      <c r="C395">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <f t="shared" ref="A396" si="198">A395+1</f>
+        <v>395</v>
+      </c>
+      <c r="C396">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <f t="shared" ref="A397" si="199">A396+1</f>
+        <v>396</v>
+      </c>
+      <c r="C397">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <f t="shared" ref="A398" si="200">A397+1</f>
+        <v>397</v>
+      </c>
+      <c r="C398">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <f t="shared" ref="A399" si="201">A398+1</f>
+        <v>398</v>
+      </c>
+      <c r="C399">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <f t="shared" ref="A400" si="202">A399+1</f>
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <f t="shared" ref="A401" si="203">A400+1</f>
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <f t="shared" ref="A402" si="204">A401+1</f>
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <f t="shared" ref="A403" si="205">A402+1</f>
+        <v>402</v>
+      </c>
+      <c r="C403">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <f t="shared" ref="A404" si="206">A403+1</f>
+        <v>403</v>
+      </c>
+      <c r="C404">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <f t="shared" ref="A405" si="207">A404+1</f>
+        <v>404</v>
+      </c>
+      <c r="C405">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <f t="shared" ref="A406" si="208">A405+1</f>
+        <v>405</v>
+      </c>
+      <c r="C406">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <f t="shared" ref="A407" si="209">A406+1</f>
+        <v>406</v>
+      </c>
+      <c r="C407">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <f t="shared" ref="A408" si="210">A407+1</f>
+        <v>407</v>
+      </c>
+      <c r="C408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <f t="shared" ref="A409" si="211">A408+1</f>
+        <v>408</v>
+      </c>
+      <c r="C409">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <f t="shared" ref="A410" si="212">A409+1</f>
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <f t="shared" ref="A411" si="213">A410+1</f>
+        <v>410</v>
+      </c>
+      <c r="C411">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <f t="shared" ref="A412" si="214">A411+1</f>
+        <v>411</v>
+      </c>
+      <c r="C412">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <f t="shared" ref="A413" si="215">A412+1</f>
+        <v>412</v>
+      </c>
+      <c r="C413">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <f t="shared" ref="A414" si="216">A413+1</f>
+        <v>413</v>
+      </c>
+      <c r="C414">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <f t="shared" ref="A415" si="217">A414+1</f>
+        <v>414</v>
+      </c>
+      <c r="C415">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <f t="shared" ref="A416" si="218">A415+1</f>
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <f t="shared" ref="A417" si="219">A416+1</f>
+        <v>416</v>
+      </c>
+      <c r="C417">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <f t="shared" ref="A418" si="220">A417+1</f>
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <f t="shared" ref="A419" si="221">A418+1</f>
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <f t="shared" ref="A420" si="222">A419+1</f>
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <f t="shared" ref="A421" si="223">A420+1</f>
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <f t="shared" ref="A422" si="224">A421+1</f>
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <f t="shared" ref="A423" si="225">A422+1</f>
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <f t="shared" ref="A424" si="226">A423+1</f>
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <f t="shared" ref="A425" si="227">A424+1</f>
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <f t="shared" ref="A426" si="228">A425+1</f>
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <f t="shared" ref="A427" si="229">A426+1</f>
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <f t="shared" ref="A428" si="230">A427+1</f>
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <f t="shared" ref="A429" si="231">A428+1</f>
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <f t="shared" ref="A430" si="232">A429+1</f>
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431">
+        <f t="shared" ref="A431" si="233">A430+1</f>
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432">
+        <f t="shared" ref="A432" si="234">A431+1</f>
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <f t="shared" ref="A433" si="235">A432+1</f>
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434">
+        <f t="shared" ref="A434" si="236">A433+1</f>
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435">
+        <f t="shared" ref="A435" si="237">A434+1</f>
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <f t="shared" ref="A436" si="238">A435+1</f>
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437">
+        <f t="shared" ref="A437" si="239">A436+1</f>
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438">
+        <f t="shared" ref="A438" si="240">A437+1</f>
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439">
+        <f t="shared" ref="A439" si="241">A438+1</f>
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440">
+        <f t="shared" ref="A440" si="242">A439+1</f>
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <f t="shared" ref="A441" si="243">A440+1</f>
+        <v>440</v>
+      </c>
+      <c r="C441">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442">
+        <f t="shared" ref="A442" si="244">A441+1</f>
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443">
+        <f t="shared" ref="A443" si="245">A442+1</f>
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444">
+        <f t="shared" ref="A444" si="246">A443+1</f>
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445">
+        <f t="shared" ref="A445" si="247">A444+1</f>
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446">
+        <f t="shared" ref="A446" si="248">A445+1</f>
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447">
+        <f t="shared" ref="A447" si="249">A446+1</f>
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448">
+        <f t="shared" ref="A448" si="250">A447+1</f>
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449">
+        <f t="shared" ref="A449" si="251">A448+1</f>
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A450">
+        <f t="shared" ref="A450" si="252">A449+1</f>
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A451">
+        <f t="shared" ref="A451" si="253">A450+1</f>
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452">
+        <f t="shared" ref="A452" si="254">A451+1</f>
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <f t="shared" ref="A453" si="255">A452+1</f>
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <f t="shared" ref="A454" si="256">A453+1</f>
+        <v>453</v>
+      </c>
+      <c r="C454">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <f t="shared" ref="A455" si="257">A454+1</f>
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <f t="shared" ref="A456" si="258">A455+1</f>
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <f t="shared" ref="A457" si="259">A456+1</f>
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <f t="shared" ref="A458" si="260">A457+1</f>
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <f t="shared" ref="A459" si="261">A458+1</f>
+        <v>458</v>
+      </c>
+      <c r="C459">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <f t="shared" ref="A460" si="262">A459+1</f>
+        <v>459</v>
+      </c>
+      <c r="C460">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <f t="shared" ref="A461" si="263">A460+1</f>
+        <v>460</v>
+      </c>
+      <c r="C461">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <f t="shared" ref="A462" si="264">A461+1</f>
+        <v>461</v>
+      </c>
+      <c r="C462">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <f t="shared" ref="A463" si="265">A462+1</f>
+        <v>462</v>
+      </c>
+      <c r="C463">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <f t="shared" ref="A464" si="266">A463+1</f>
+        <v>463</v>
+      </c>
+      <c r="C464">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <f t="shared" ref="A465" si="267">A464+1</f>
+        <v>464</v>
+      </c>
+      <c r="C465">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <f t="shared" ref="A466" si="268">A465+1</f>
+        <v>465</v>
+      </c>
+      <c r="C466">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A467">
+        <f t="shared" ref="A467" si="269">A466+1</f>
+        <v>466</v>
+      </c>
+      <c r="C467">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A468">
+        <f t="shared" ref="A468" si="270">A467+1</f>
+        <v>467</v>
+      </c>
+      <c r="C468">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A469">
+        <f t="shared" ref="A469" si="271">A468+1</f>
+        <v>468</v>
+      </c>
+      <c r="C469">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470">
+        <f t="shared" ref="A470" si="272">A469+1</f>
+        <v>469</v>
+      </c>
+      <c r="C470">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <f t="shared" ref="A471" si="273">A470+1</f>
+        <v>470</v>
+      </c>
+      <c r="C471">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472">
+        <f t="shared" ref="A472" si="274">A471+1</f>
+        <v>471</v>
+      </c>
+      <c r="C472">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473">
+        <f t="shared" ref="A473" si="275">A472+1</f>
+        <v>472</v>
+      </c>
+      <c r="C473">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A474">
+        <f t="shared" ref="A474" si="276">A473+1</f>
+        <v>473</v>
+      </c>
+      <c r="C474">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A475">
+        <f t="shared" ref="A475" si="277">A474+1</f>
+        <v>474</v>
+      </c>
+      <c r="C475">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A476">
+        <f t="shared" ref="A476" si="278">A475+1</f>
+        <v>475</v>
+      </c>
+      <c r="C476">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A477">
+        <f t="shared" ref="A477" si="279">A476+1</f>
+        <v>476</v>
+      </c>
+      <c r="C477">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <f t="shared" ref="A478" si="280">A477+1</f>
+        <v>477</v>
+      </c>
+      <c r="C478">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A479">
+        <f t="shared" ref="A479" si="281">A478+1</f>
+        <v>478</v>
+      </c>
+      <c r="C479">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A480">
+        <f t="shared" ref="A480" si="282">A479+1</f>
+        <v>479</v>
+      </c>
+      <c r="C480">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A481">
+        <f t="shared" ref="A481" si="283">A480+1</f>
+        <v>480</v>
+      </c>
+      <c r="C481">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A482">
+        <f t="shared" ref="A482" si="284">A481+1</f>
+        <v>481</v>
+      </c>
+      <c r="C482">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A483">
+        <f t="shared" ref="A483" si="285">A482+1</f>
+        <v>482</v>
+      </c>
+      <c r="C483">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A484">
+        <f t="shared" ref="A484" si="286">A483+1</f>
+        <v>483</v>
+      </c>
+      <c r="C484">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A485">
+        <f t="shared" ref="A485" si="287">A484+1</f>
+        <v>484</v>
+      </c>
+      <c r="C485">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A486">
+        <f t="shared" ref="A486" si="288">A485+1</f>
+        <v>485</v>
+      </c>
+      <c r="C486">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A487">
+        <f t="shared" ref="A487" si="289">A486+1</f>
+        <v>486</v>
+      </c>
+      <c r="C487">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A488">
+        <f t="shared" ref="A488" si="290">A487+1</f>
+        <v>487</v>
+      </c>
+      <c r="C488">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A489">
+        <f t="shared" ref="A489" si="291">A488+1</f>
+        <v>488</v>
+      </c>
+      <c r="C489">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A490">
+        <f t="shared" ref="A490" si="292">A489+1</f>
+        <v>489</v>
+      </c>
+      <c r="C490">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A491">
+        <f t="shared" ref="A491" si="293">A490+1</f>
+        <v>490</v>
+      </c>
+      <c r="C491">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A492">
+        <f t="shared" ref="A492" si="294">A491+1</f>
+        <v>491</v>
+      </c>
+      <c r="C492">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A493">
+        <f t="shared" ref="A493" si="295">A492+1</f>
+        <v>492</v>
+      </c>
+      <c r="C493">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A494">
+        <f t="shared" ref="A494" si="296">A493+1</f>
+        <v>493</v>
+      </c>
+      <c r="C494">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A495">
+        <f t="shared" ref="A495" si="297">A494+1</f>
+        <v>494</v>
+      </c>
+      <c r="C495">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A496">
+        <f t="shared" ref="A496" si="298">A495+1</f>
+        <v>495</v>
+      </c>
+      <c r="C496">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A497">
+        <f t="shared" ref="A497" si="299">A496+1</f>
+        <v>496</v>
+      </c>
+      <c r="C497">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A498">
+        <f t="shared" ref="A498" si="300">A497+1</f>
+        <v>497</v>
+      </c>
+      <c r="C498">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A499">
+        <f t="shared" ref="A499" si="301">A498+1</f>
+        <v>498</v>
+      </c>
+      <c r="C499">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A500">
+        <f t="shared" ref="A500" si="302">A499+1</f>
+        <v>499</v>
+      </c>
+      <c r="C500">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A501">
+        <f t="shared" ref="A501" si="303">A500+1</f>
+        <v>500</v>
+      </c>
+      <c r="C501">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A502">
+        <f t="shared" ref="A502" si="304">A501+1</f>
+        <v>501</v>
+      </c>
+      <c r="C502">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A503">
+        <f t="shared" ref="A503" si="305">A502+1</f>
+        <v>502</v>
+      </c>
+      <c r="C503">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A504">
+        <f t="shared" ref="A504" si="306">A503+1</f>
+        <v>503</v>
+      </c>
+      <c r="C504">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A505">
+        <f t="shared" ref="A505" si="307">A504+1</f>
+        <v>504</v>
+      </c>
+      <c r="C505">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A506">
+        <f t="shared" ref="A506" si="308">A505+1</f>
+        <v>505</v>
+      </c>
+      <c r="C506">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A507">
+        <f t="shared" ref="A507" si="309">A506+1</f>
+        <v>506</v>
+      </c>
+      <c r="C507">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A508">
+        <f t="shared" ref="A508" si="310">A507+1</f>
+        <v>507</v>
+      </c>
+      <c r="C508">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A509">
+        <f t="shared" ref="A509" si="311">A508+1</f>
+        <v>508</v>
+      </c>
+      <c r="C509">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A510">
+        <f t="shared" ref="A510" si="312">A509+1</f>
+        <v>509</v>
+      </c>
+      <c r="C510">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A511">
+        <f t="shared" ref="A511" si="313">A510+1</f>
+        <v>510</v>
+      </c>
+      <c r="C511">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A512">
+        <f t="shared" ref="A512" si="314">A511+1</f>
+        <v>511</v>
+      </c>
+      <c r="C512">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A513">
+        <f t="shared" ref="A513" si="315">A512+1</f>
+        <v>512</v>
+      </c>
+      <c r="C513">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A514">
+        <f t="shared" ref="A514" si="316">A513+1</f>
+        <v>513</v>
+      </c>
+      <c r="C514">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A515">
+        <f t="shared" ref="A515" si="317">A514+1</f>
+        <v>514</v>
+      </c>
+      <c r="C515">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A516">
+        <f t="shared" ref="A516" si="318">A515+1</f>
+        <v>515</v>
+      </c>
+      <c r="C516">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A517">
+        <f t="shared" ref="A517" si="319">A516+1</f>
+        <v>516</v>
+      </c>
+      <c r="C517">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A518">
+        <f t="shared" ref="A518" si="320">A517+1</f>
+        <v>517</v>
+      </c>
+      <c r="C518">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A519">
+        <f t="shared" ref="A519" si="321">A518+1</f>
+        <v>518</v>
+      </c>
+      <c r="C519">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A520">
+        <f t="shared" ref="A520" si="322">A519+1</f>
+        <v>519</v>
+      </c>
+      <c r="C520">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A521">
+        <f t="shared" ref="A521" si="323">A520+1</f>
+        <v>520</v>
+      </c>
+      <c r="C521">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A522">
+        <f t="shared" ref="A522" si="324">A521+1</f>
+        <v>521</v>
+      </c>
+      <c r="C522">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A523">
+        <f t="shared" ref="A523" si="325">A522+1</f>
+        <v>522</v>
+      </c>
+      <c r="C523">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A524">
+        <f t="shared" ref="A524" si="326">A523+1</f>
+        <v>523</v>
+      </c>
+      <c r="C524">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A525">
+        <f t="shared" ref="A525" si="327">A524+1</f>
+        <v>524</v>
+      </c>
+      <c r="C525">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A526">
+        <f t="shared" ref="A526" si="328">A525+1</f>
+        <v>525</v>
+      </c>
+      <c r="C526">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A527">
+        <f t="shared" ref="A527" si="329">A526+1</f>
+        <v>526</v>
+      </c>
+      <c r="C527">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A528">
+        <f t="shared" ref="A528" si="330">A527+1</f>
+        <v>527</v>
+      </c>
+      <c r="C528">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A529">
+        <f t="shared" ref="A529" si="331">A528+1</f>
+        <v>528</v>
+      </c>
+      <c r="C529">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A530">
+        <f t="shared" ref="A530" si="332">A529+1</f>
+        <v>529</v>
+      </c>
+      <c r="C530">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A531">
+        <f t="shared" ref="A531" si="333">A530+1</f>
+        <v>530</v>
+      </c>
+      <c r="C531">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A532">
+        <f t="shared" ref="A532" si="334">A531+1</f>
+        <v>531</v>
+      </c>
+      <c r="C532">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A533">
+        <f t="shared" ref="A533" si="335">A532+1</f>
+        <v>532</v>
+      </c>
+      <c r="C533">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A534">
+        <f t="shared" ref="A534" si="336">A533+1</f>
+        <v>533</v>
+      </c>
+      <c r="C534">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A535">
+        <f t="shared" ref="A535" si="337">A534+1</f>
+        <v>534</v>
+      </c>
+      <c r="C535">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A536">
+        <f t="shared" ref="A536" si="338">A535+1</f>
+        <v>535</v>
+      </c>
+      <c r="C536">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A537">
+        <f t="shared" ref="A537" si="339">A536+1</f>
+        <v>536</v>
+      </c>
+      <c r="C537">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A538">
+        <f t="shared" ref="A538" si="340">A537+1</f>
+        <v>537</v>
+      </c>
+      <c r="C538">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A539">
+        <f t="shared" ref="A539" si="341">A538+1</f>
+        <v>538</v>
+      </c>
+      <c r="C539">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A540">
+        <f t="shared" ref="A540" si="342">A539+1</f>
+        <v>539</v>
+      </c>
+      <c r="C540">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A541">
+        <f t="shared" ref="A541" si="343">A540+1</f>
+        <v>540</v>
+      </c>
+      <c r="C541">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A542">
+        <f t="shared" ref="A542" si="344">A541+1</f>
+        <v>541</v>
+      </c>
+      <c r="C542">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A543">
+        <f t="shared" ref="A543" si="345">A542+1</f>
+        <v>542</v>
+      </c>
+      <c r="C543">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A544">
+        <f t="shared" ref="A544" si="346">A543+1</f>
+        <v>543</v>
+      </c>
+      <c r="C544">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A545">
+        <f t="shared" ref="A545" si="347">A544+1</f>
+        <v>544</v>
+      </c>
+      <c r="C545">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A546">
+        <f t="shared" ref="A546" si="348">A545+1</f>
+        <v>545</v>
+      </c>
+      <c r="C546">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A547">
+        <f t="shared" ref="A547" si="349">A546+1</f>
+        <v>546</v>
+      </c>
+      <c r="C547">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A548">
+        <f t="shared" ref="A548" si="350">A547+1</f>
+        <v>547</v>
+      </c>
+      <c r="C548">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A549">
+        <f t="shared" ref="A549" si="351">A548+1</f>
+        <v>548</v>
+      </c>
+      <c r="C549">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A550">
+        <f t="shared" ref="A550" si="352">A549+1</f>
+        <v>549</v>
+      </c>
+      <c r="C550">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A551">
+        <f t="shared" ref="A551" si="353">A550+1</f>
+        <v>550</v>
+      </c>
+      <c r="C551">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A552">
+        <f t="shared" ref="A552" si="354">A551+1</f>
+        <v>551</v>
+      </c>
+      <c r="C552">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A553">
+        <f t="shared" ref="A553" si="355">A552+1</f>
+        <v>552</v>
+      </c>
+      <c r="C553">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A554">
+        <f t="shared" ref="A554" si="356">A553+1</f>
+        <v>553</v>
+      </c>
+      <c r="C554">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A555">
+        <f t="shared" ref="A555" si="357">A554+1</f>
+        <v>554</v>
+      </c>
+      <c r="C555">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A556">
+        <f t="shared" ref="A556" si="358">A555+1</f>
+        <v>555</v>
+      </c>
+      <c r="C556">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A557">
+        <f t="shared" ref="A557" si="359">A556+1</f>
+        <v>556</v>
+      </c>
+      <c r="C557">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A558">
+        <f t="shared" ref="A558" si="360">A557+1</f>
+        <v>557</v>
+      </c>
+      <c r="C558">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A559">
+        <f t="shared" ref="A559" si="361">A558+1</f>
+        <v>558</v>
+      </c>
+      <c r="C559">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A560">
+        <f t="shared" ref="A560" si="362">A559+1</f>
+        <v>559</v>
+      </c>
+      <c r="C560">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A561">
+        <f t="shared" ref="A561" si="363">A560+1</f>
+        <v>560</v>
+      </c>
+      <c r="C561">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A562">
+        <f t="shared" ref="A562" si="364">A561+1</f>
+        <v>561</v>
+      </c>
+      <c r="C562">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A563">
+        <f t="shared" ref="A563" si="365">A562+1</f>
+        <v>562</v>
+      </c>
+      <c r="C563">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A564">
+        <f t="shared" ref="A564" si="366">A563+1</f>
+        <v>563</v>
+      </c>
+      <c r="C564">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A565">
+        <f t="shared" ref="A565" si="367">A564+1</f>
+        <v>564</v>
+      </c>
+      <c r="C565">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A566">
+        <f t="shared" ref="A566" si="368">A565+1</f>
+        <v>565</v>
+      </c>
+      <c r="C566">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A567">
+        <f t="shared" ref="A567" si="369">A566+1</f>
+        <v>566</v>
+      </c>
+      <c r="C567">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A568">
+        <f t="shared" ref="A568" si="370">A567+1</f>
+        <v>567</v>
+      </c>
+      <c r="C568">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A569">
+        <f t="shared" ref="A569" si="371">A568+1</f>
+        <v>568</v>
+      </c>
+      <c r="C569">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A570">
+        <f t="shared" ref="A570" si="372">A569+1</f>
+        <v>569</v>
+      </c>
+      <c r="C570">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A571">
+        <f t="shared" ref="A571" si="373">A570+1</f>
+        <v>570</v>
+      </c>
+      <c r="C571">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A572">
+        <f t="shared" ref="A572" si="374">A571+1</f>
+        <v>571</v>
+      </c>
+      <c r="C572">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A573">
+        <f t="shared" ref="A573" si="375">A572+1</f>
+        <v>572</v>
+      </c>
+      <c r="C573">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A574">
+        <f t="shared" ref="A574" si="376">A573+1</f>
+        <v>573</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A575">
+        <f t="shared" ref="A575" si="377">A574+1</f>
+        <v>574</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A576">
+        <f t="shared" ref="A576" si="378">A575+1</f>
+        <v>575</v>
+      </c>
+      <c r="C576">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A577">
+        <f t="shared" ref="A577" si="379">A576+1</f>
+        <v>576</v>
+      </c>
+      <c r="C577">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A578">
+        <f t="shared" ref="A578" si="380">A577+1</f>
+        <v>577</v>
+      </c>
+      <c r="C578">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A579">
+        <f t="shared" ref="A579" si="381">A578+1</f>
+        <v>578</v>
+      </c>
+      <c r="C579">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A580">
+        <f t="shared" ref="A580" si="382">A579+1</f>
+        <v>579</v>
+      </c>
+      <c r="C580">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A581">
+        <f t="shared" ref="A581" si="383">A580+1</f>
+        <v>580</v>
+      </c>
+      <c r="C581">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A582">
+        <f t="shared" ref="A582" si="384">A581+1</f>
+        <v>581</v>
+      </c>
+      <c r="C582">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A583">
+        <f t="shared" ref="A583" si="385">A582+1</f>
+        <v>582</v>
+      </c>
+      <c r="C583">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A584">
+        <f t="shared" ref="A584" si="386">A583+1</f>
+        <v>583</v>
+      </c>
+      <c r="C584">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A585">
+        <f t="shared" ref="A585" si="387">A584+1</f>
+        <v>584</v>
+      </c>
+      <c r="C585">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A586">
+        <f t="shared" ref="A586" si="388">A585+1</f>
+        <v>585</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A587">
+        <f t="shared" ref="A587" si="389">A586+1</f>
+        <v>586</v>
+      </c>
+      <c r="C587">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A588">
+        <f t="shared" ref="A588" si="390">A587+1</f>
+        <v>587</v>
+      </c>
+      <c r="C588">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A589">
+        <f t="shared" ref="A589" si="391">A588+1</f>
+        <v>588</v>
+      </c>
+      <c r="C589">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A590">
+        <f t="shared" ref="A590" si="392">A589+1</f>
+        <v>589</v>
+      </c>
+      <c r="C590">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A591">
+        <f t="shared" ref="A591" si="393">A590+1</f>
+        <v>590</v>
+      </c>
+      <c r="C591">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A592">
+        <f t="shared" ref="A592" si="394">A591+1</f>
+        <v>591</v>
+      </c>
+      <c r="C592">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A593">
+        <f t="shared" ref="A593" si="395">A592+1</f>
+        <v>592</v>
+      </c>
+      <c r="C593">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A594">
+        <f t="shared" ref="A594" si="396">A593+1</f>
+        <v>593</v>
+      </c>
+      <c r="C594">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A595">
+        <f t="shared" ref="A595" si="397">A594+1</f>
+        <v>594</v>
+      </c>
+      <c r="C595">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A596">
+        <f t="shared" ref="A596" si="398">A595+1</f>
+        <v>595</v>
+      </c>
+      <c r="C596">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A597">
+        <f t="shared" ref="A597" si="399">A596+1</f>
+        <v>596</v>
+      </c>
+      <c r="C597">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A598">
+        <f t="shared" ref="A598" si="400">A597+1</f>
+        <v>597</v>
+      </c>
+      <c r="C598">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A599">
+        <f t="shared" ref="A599" si="401">A598+1</f>
+        <v>598</v>
+      </c>
+      <c r="C599">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A600">
+        <f t="shared" ref="A600" si="402">A599+1</f>
+        <v>599</v>
+      </c>
+      <c r="C600">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A601">
+        <f t="shared" ref="A601" si="403">A600+1</f>
+        <v>600</v>
+      </c>
+      <c r="C601">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A602">
+        <f t="shared" ref="A602" si="404">A601+1</f>
+        <v>601</v>
+      </c>
+      <c r="C602">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A603">
+        <f t="shared" ref="A603" si="405">A602+1</f>
+        <v>602</v>
+      </c>
+      <c r="C603">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A604">
+        <f t="shared" ref="A604" si="406">A603+1</f>
+        <v>603</v>
+      </c>
+      <c r="C604">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A605">
+        <f t="shared" ref="A605" si="407">A604+1</f>
+        <v>604</v>
+      </c>
+      <c r="C605">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A606">
+        <f t="shared" ref="A606" si="408">A605+1</f>
+        <v>605</v>
+      </c>
+      <c r="C606">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A607">
+        <f t="shared" ref="A607" si="409">A606+1</f>
+        <v>606</v>
+      </c>
+      <c r="C607">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A608">
+        <f t="shared" ref="A608" si="410">A607+1</f>
+        <v>607</v>
+      </c>
+      <c r="C608">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A609">
+        <f t="shared" ref="A609" si="411">A608+1</f>
+        <v>608</v>
+      </c>
+      <c r="C609">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A610">
+        <f t="shared" ref="A610" si="412">A609+1</f>
+        <v>609</v>
+      </c>
+      <c r="C610">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A611">
+        <f t="shared" ref="A611" si="413">A610+1</f>
+        <v>610</v>
+      </c>
+      <c r="C611">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A612">
+        <f t="shared" ref="A612" si="414">A611+1</f>
+        <v>611</v>
+      </c>
+      <c r="C612">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A613">
+        <f t="shared" ref="A613" si="415">A612+1</f>
+        <v>612</v>
+      </c>
+      <c r="C613">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A614">
+        <f t="shared" ref="A614" si="416">A613+1</f>
+        <v>613</v>
+      </c>
+      <c r="C614">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A615">
+        <f t="shared" ref="A615" si="417">A614+1</f>
+        <v>614</v>
+      </c>
+      <c r="C615">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A616">
+        <f t="shared" ref="A616" si="418">A615+1</f>
+        <v>615</v>
+      </c>
+      <c r="C616">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A617">
+        <f t="shared" ref="A617" si="419">A616+1</f>
+        <v>616</v>
+      </c>
+      <c r="C617">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A618">
+        <f t="shared" ref="A618" si="420">A617+1</f>
+        <v>617</v>
+      </c>
+      <c r="C618">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A619">
+        <f t="shared" ref="A619" si="421">A618+1</f>
+        <v>618</v>
+      </c>
+      <c r="C619">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A620">
+        <f t="shared" ref="A620" si="422">A619+1</f>
+        <v>619</v>
+      </c>
+      <c r="C620">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A621">
+        <f t="shared" ref="A621" si="423">A620+1</f>
+        <v>620</v>
+      </c>
+      <c r="C621">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A622">
+        <f t="shared" ref="A622" si="424">A621+1</f>
+        <v>621</v>
+      </c>
+      <c r="C622">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A623">
+        <f t="shared" ref="A623" si="425">A622+1</f>
+        <v>622</v>
+      </c>
+      <c r="C623">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A624">
+        <f t="shared" ref="A624" si="426">A623+1</f>
+        <v>623</v>
+      </c>
+      <c r="C624">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A625">
+        <f t="shared" ref="A625" si="427">A624+1</f>
+        <v>624</v>
+      </c>
+      <c r="C625">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A626">
+        <f t="shared" ref="A626" si="428">A625+1</f>
+        <v>625</v>
+      </c>
+      <c r="C626">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A627">
+        <f t="shared" ref="A627" si="429">A626+1</f>
+        <v>626</v>
+      </c>
+      <c r="C627">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A628">
+        <f t="shared" ref="A628" si="430">A627+1</f>
+        <v>627</v>
+      </c>
+      <c r="C628">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A629">
+        <f t="shared" ref="A629" si="431">A628+1</f>
+        <v>628</v>
+      </c>
+      <c r="C629">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A630">
+        <f t="shared" ref="A630" si="432">A629+1</f>
+        <v>629</v>
+      </c>
+      <c r="C630">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A631">
+        <f t="shared" ref="A631" si="433">A630+1</f>
+        <v>630</v>
+      </c>
+      <c r="C631">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A632">
+        <f t="shared" ref="A632" si="434">A631+1</f>
+        <v>631</v>
+      </c>
+      <c r="C632">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A633">
+        <f t="shared" ref="A633" si="435">A632+1</f>
+        <v>632</v>
+      </c>
+      <c r="C633">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A634">
+        <f t="shared" ref="A634" si="436">A633+1</f>
+        <v>633</v>
+      </c>
+      <c r="C634">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A635">
+        <f t="shared" ref="A635" si="437">A634+1</f>
+        <v>634</v>
+      </c>
+      <c r="C635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A636">
+        <f t="shared" ref="A636" si="438">A635+1</f>
+        <v>635</v>
+      </c>
+      <c r="C636">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A637">
+        <f t="shared" ref="A637" si="439">A636+1</f>
+        <v>636</v>
+      </c>
+      <c r="C637">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A638">
+        <f t="shared" ref="A638" si="440">A637+1</f>
+        <v>637</v>
+      </c>
+      <c r="C638">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A639">
+        <f t="shared" ref="A639" si="441">A638+1</f>
+        <v>638</v>
+      </c>
+      <c r="C639">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A640">
+        <f t="shared" ref="A640" si="442">A639+1</f>
+        <v>639</v>
+      </c>
+      <c r="C640">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A641">
+        <f t="shared" ref="A641" si="443">A640+1</f>
+        <v>640</v>
+      </c>
+      <c r="C641">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A642">
+        <f t="shared" ref="A642" si="444">A641+1</f>
+        <v>641</v>
+      </c>
+      <c r="C642">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A643">
+        <f t="shared" ref="A643" si="445">A642+1</f>
+        <v>642</v>
+      </c>
+      <c r="C643">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A644">
+        <f t="shared" ref="A644" si="446">A643+1</f>
+        <v>643</v>
+      </c>
+      <c r="C644">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A645">
+        <f t="shared" ref="A645" si="447">A644+1</f>
+        <v>644</v>
+      </c>
+      <c r="C645">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A646">
+        <f t="shared" ref="A646" si="448">A645+1</f>
+        <v>645</v>
+      </c>
+      <c r="C646">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A647">
+        <f t="shared" ref="A647" si="449">A646+1</f>
+        <v>646</v>
+      </c>
+      <c r="C647">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A648">
+        <f t="shared" ref="A648" si="450">A647+1</f>
+        <v>647</v>
+      </c>
+      <c r="C648">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A649">
+        <f t="shared" ref="A649" si="451">A648+1</f>
+        <v>648</v>
+      </c>
+      <c r="C649">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A650">
+        <f t="shared" ref="A650" si="452">A649+1</f>
+        <v>649</v>
+      </c>
+      <c r="C650">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A651">
+        <f t="shared" ref="A651" si="453">A650+1</f>
+        <v>650</v>
+      </c>
+      <c r="C651">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A652">
+        <f t="shared" ref="A652" si="454">A651+1</f>
+        <v>651</v>
+      </c>
+      <c r="C652">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A653">
+        <f t="shared" ref="A653" si="455">A652+1</f>
+        <v>652</v>
+      </c>
+      <c r="C653">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A654">
+        <f t="shared" ref="A654" si="456">A653+1</f>
+        <v>653</v>
+      </c>
+      <c r="C654">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A655">
+        <f t="shared" ref="A655" si="457">A654+1</f>
+        <v>654</v>
+      </c>
+      <c r="C655">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A656">
+        <f t="shared" ref="A656" si="458">A655+1</f>
+        <v>655</v>
+      </c>
+      <c r="C656">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A657">
+        <f t="shared" ref="A657" si="459">A656+1</f>
+        <v>656</v>
+      </c>
+      <c r="C657">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A658">
+        <f t="shared" ref="A658" si="460">A657+1</f>
+        <v>657</v>
+      </c>
+      <c r="C658">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A659">
+        <f t="shared" ref="A659" si="461">A658+1</f>
+        <v>658</v>
+      </c>
+      <c r="C659">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A660">
+        <f t="shared" ref="A660" si="462">A659+1</f>
+        <v>659</v>
+      </c>
+      <c r="C660">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A661">
+        <f t="shared" ref="A661" si="463">A660+1</f>
+        <v>660</v>
+      </c>
+      <c r="C661">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A662">
+        <f t="shared" ref="A662" si="464">A661+1</f>
+        <v>661</v>
+      </c>
+      <c r="C662">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A663">
+        <f t="shared" ref="A663" si="465">A662+1</f>
+        <v>662</v>
+      </c>
+      <c r="C663">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A664">
+        <f t="shared" ref="A664" si="466">A663+1</f>
+        <v>663</v>
+      </c>
+      <c r="C664">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A665">
+        <f t="shared" ref="A665" si="467">A664+1</f>
+        <v>664</v>
+      </c>
+      <c r="C665">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A666">
+        <f t="shared" ref="A666" si="468">A665+1</f>
+        <v>665</v>
+      </c>
+      <c r="C666">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A667">
+        <f t="shared" ref="A667" si="469">A666+1</f>
+        <v>666</v>
+      </c>
+      <c r="C667">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A668">
+        <f t="shared" ref="A668" si="470">A667+1</f>
+        <v>667</v>
+      </c>
+      <c r="C668">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A669">
+        <f t="shared" ref="A669" si="471">A668+1</f>
+        <v>668</v>
+      </c>
+      <c r="C669">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A670">
+        <f t="shared" ref="A670" si="472">A669+1</f>
+        <v>669</v>
+      </c>
+      <c r="C670">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A671">
+        <f t="shared" ref="A671" si="473">A670+1</f>
+        <v>670</v>
+      </c>
+      <c r="C671">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A672">
+        <f t="shared" ref="A672" si="474">A671+1</f>
+        <v>671</v>
+      </c>
+      <c r="C672">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A673">
+        <f t="shared" ref="A673" si="475">A672+1</f>
+        <v>672</v>
+      </c>
+      <c r="C673">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A674">
+        <f t="shared" ref="A674" si="476">A673+1</f>
+        <v>673</v>
+      </c>
+      <c r="C674">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A675">
+        <f t="shared" ref="A675" si="477">A674+1</f>
+        <v>674</v>
+      </c>
+      <c r="C675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A676">
+        <f t="shared" ref="A676" si="478">A675+1</f>
+        <v>675</v>
+      </c>
+      <c r="C676">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A677">
+        <f t="shared" ref="A677" si="479">A676+1</f>
+        <v>676</v>
+      </c>
+      <c r="C677">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A678">
+        <f t="shared" ref="A678" si="480">A677+1</f>
+        <v>677</v>
+      </c>
+      <c r="C678">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A679">
+        <f t="shared" ref="A679" si="481">A678+1</f>
+        <v>678</v>
+      </c>
+      <c r="C679">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A680">
+        <f t="shared" ref="A680" si="482">A679+1</f>
+        <v>679</v>
+      </c>
+      <c r="C680">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A681">
+        <f t="shared" ref="A681" si="483">A680+1</f>
+        <v>680</v>
+      </c>
+      <c r="C681">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A682">
+        <f t="shared" ref="A682" si="484">A681+1</f>
+        <v>681</v>
+      </c>
+      <c r="C682">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A683">
+        <f t="shared" ref="A683" si="485">A682+1</f>
+        <v>682</v>
+      </c>
+      <c r="C683">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A684">
+        <f t="shared" ref="A684" si="486">A683+1</f>
+        <v>683</v>
+      </c>
+      <c r="C684">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A685">
+        <f t="shared" ref="A685" si="487">A684+1</f>
+        <v>684</v>
+      </c>
+      <c r="C685">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A686">
+        <f t="shared" ref="A686" si="488">A685+1</f>
+        <v>685</v>
+      </c>
+      <c r="C686">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A687">
+        <f t="shared" ref="A687" si="489">A686+1</f>
+        <v>686</v>
+      </c>
+      <c r="C687">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A688">
+        <f t="shared" ref="A688" si="490">A687+1</f>
+        <v>687</v>
+      </c>
+      <c r="C688">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A689">
+        <f t="shared" ref="A689" si="491">A688+1</f>
+        <v>688</v>
+      </c>
+      <c r="C689">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A690">
+        <f t="shared" ref="A690" si="492">A689+1</f>
+        <v>689</v>
+      </c>
+      <c r="C690">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A691">
+        <f t="shared" ref="A691" si="493">A690+1</f>
+        <v>690</v>
+      </c>
+      <c r="C691">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A692">
+        <f t="shared" ref="A692" si="494">A691+1</f>
+        <v>691</v>
+      </c>
+      <c r="C692">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A693">
+        <f t="shared" ref="A693" si="495">A692+1</f>
+        <v>692</v>
+      </c>
+      <c r="C693">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A694">
+        <f t="shared" ref="A694" si="496">A693+1</f>
+        <v>693</v>
+      </c>
+      <c r="C694">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A695">
+        <f t="shared" ref="A695" si="497">A694+1</f>
+        <v>694</v>
+      </c>
+      <c r="C695">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A696">
+        <f t="shared" ref="A696" si="498">A695+1</f>
+        <v>695</v>
+      </c>
+      <c r="C696">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A697">
+        <f t="shared" ref="A697" si="499">A696+1</f>
+        <v>696</v>
+      </c>
+      <c r="C697">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A698">
+        <f t="shared" ref="A698" si="500">A697+1</f>
+        <v>697</v>
+      </c>
+      <c r="C698">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A699">
+        <f t="shared" ref="A699" si="501">A698+1</f>
+        <v>698</v>
+      </c>
+      <c r="C699">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A700">
+        <f t="shared" ref="A700" si="502">A699+1</f>
+        <v>699</v>
+      </c>
+      <c r="C700">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A701">
+        <f t="shared" ref="A701" si="503">A700+1</f>
+        <v>700</v>
+      </c>
+      <c r="C701">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
